--- a/killTheDummy_Documents/Microsoft_Office/testcases.xlsx
+++ b/killTheDummy_Documents/Microsoft_Office/testcases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dokumente\killTheDummy_Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dokumente\killTheDummy_Documents\Microsoft_Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="73">
   <si>
     <t>Nr.</t>
   </si>
@@ -63,6 +63,186 @@
   </si>
   <si>
     <t>Expected output</t>
+  </si>
+  <si>
+    <t>what to do</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>attack 25</t>
+  </si>
+  <si>
+    <t>it tries to deal 25 damage</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>ability 3</t>
+  </si>
+  <si>
+    <t>ability 3 gets used</t>
+  </si>
+  <si>
+    <t>surrender</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>player has died</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>enemy's turn</t>
+  </si>
+  <si>
+    <t>you did nothing</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>info [the thing you want info about]</t>
+  </si>
+  <si>
+    <t>info enemy [the thing you want info about]</t>
+  </si>
+  <si>
+    <t>stats</t>
+  </si>
+  <si>
+    <t>info attack</t>
+  </si>
+  <si>
+    <t>info enemy attack</t>
+  </si>
+  <si>
+    <t>info about your attack</t>
+  </si>
+  <si>
+    <t>info about the enemy's attack</t>
+  </si>
+  <si>
+    <t>The current stats</t>
+  </si>
+  <si>
+    <t>create enemy</t>
+  </si>
+  <si>
+    <t>[integer]</t>
+  </si>
+  <si>
+    <t>[non integer number]</t>
+  </si>
+  <si>
+    <t>enemy hp has been set to 100</t>
+  </si>
+  <si>
+    <t>[negative integer]</t>
+  </si>
+  <si>
+    <t>Enemy is already dead</t>
+  </si>
+  <si>
+    <t>[non integer input]</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>input invalid</t>
+  </si>
+  <si>
+    <t>[integer between and including 1 and 4]</t>
+  </si>
+  <si>
+    <t>[integer larger than 4]</t>
+  </si>
+  <si>
+    <t>[integer smaller than 1]</t>
+  </si>
+  <si>
+    <t>[valid input]</t>
+  </si>
+  <si>
+    <t>information about the own attack</t>
+  </si>
+  <si>
+    <t>[invalid input]</t>
+  </si>
+  <si>
+    <t>there is no information about this available</t>
+  </si>
+  <si>
+    <t>enemy</t>
+  </si>
+  <si>
+    <t>information about the enemy's attack</t>
+  </si>
+  <si>
+    <t>attack [valid integer]</t>
+  </si>
+  <si>
+    <t>attack [invalid input]</t>
+  </si>
+  <si>
+    <t>attack 20.5</t>
+  </si>
+  <si>
+    <t>attack f</t>
+  </si>
+  <si>
+    <t>attack [invalid number]</t>
+  </si>
+  <si>
+    <t>ability [integer between 1 and 4]</t>
+  </si>
+  <si>
+    <t>ability [integer smaller than 1]</t>
+  </si>
+  <si>
+    <t>ability [integer larger than 4]</t>
+  </si>
+  <si>
+    <t>ability [non integer number]</t>
+  </si>
+  <si>
+    <t>ability 0</t>
+  </si>
+  <si>
+    <t>ability 5</t>
+  </si>
+  <si>
+    <t>ability 2.5</t>
+  </si>
+  <si>
+    <t>ability [non number input]</t>
+  </si>
+  <si>
+    <t>ability f</t>
+  </si>
+  <si>
+    <t>info [invalid input]</t>
+  </si>
+  <si>
+    <t>info f</t>
+  </si>
+  <si>
+    <t>info enemy [invalid input]</t>
+  </si>
+  <si>
+    <t>info enemy f</t>
   </si>
 </sst>
 </file>
@@ -100,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -133,37 +313,30 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -478,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEF9122-D1E7-4BF9-B524-3F4031941329}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,279 +685,769 @@
         <v>2</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="4">
         <v>43105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="B5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="9">
+        <v>100</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <f>A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="9">
+        <v>-100</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <f>A7+1</f>
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="B8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="6">
+        <f>A8+1</f>
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="6">
+        <f>A9+1</f>
         <v>6</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="6">
+        <f>A10+1</f>
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="6">
+        <f>A11+1</f>
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A13" s="6">
+        <f>A12+1</f>
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <f>A13+1</f>
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <f>A14+1</f>
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <f>A15+1</f>
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <f>A16+1</f>
+        <v>13</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="A18" s="6">
+        <f>A17+1</f>
+        <v>14</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="A19" s="6">
+        <f>A18+1</f>
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="A20" s="6">
+        <f>A19+1</f>
+        <v>16</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="A21" s="6">
+        <f>A20+1</f>
+        <v>17</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <f>A21+1</f>
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="A23" s="6">
+        <f>A22+1</f>
+        <v>19</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <f>A23+1</f>
+        <v>20</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A25" s="6">
+        <f>A24+1</f>
+        <v>21</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="A26" s="6">
+        <f>A25+1</f>
+        <v>22</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="A27" s="6">
+        <f>A26+1</f>
+        <v>23</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="A28" s="6">
+        <f>A27+1</f>
+        <v>24</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="9">
+        <v>20.5</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="A29" s="6">
+        <f>A28+1</f>
+        <v>25</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="9">
+        <v>-25</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="A30" s="6">
+        <f>A29+1</f>
+        <v>26</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <f>A30+1</f>
+        <v>27</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="9">
+        <v>3</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="A32" s="6">
+        <f>A31+1</f>
+        <v>28</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="9">
+        <v>5</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="A33" s="6">
+        <f>A32+1</f>
+        <v>29</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <f>A33+1</f>
+        <v>30</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <f>A34+1</f>
+        <v>31</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <f>A35+1</f>
+        <v>32</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <f>A36+1</f>
+        <v>33</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <f>A37+1</f>
+        <v>34</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <f>A38+1</f>
+        <v>35</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/killTheDummy_Documents/Microsoft_Office/testcases.xlsx
+++ b/killTheDummy_Documents/Microsoft_Office/testcases.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -326,7 +326,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -337,6 +336,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEF9122-D1E7-4BF9-B524-3F4031941329}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,10 +666,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
@@ -681,10 +681,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -696,756 +696,756 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>100</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <f>A5+1</f>
+      <c r="A6" s="5">
+        <f t="shared" ref="A6:A39" si="0">A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>5.5</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <f>A6+1</f>
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>-100</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <f>A7+1</f>
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <f>A8+1</f>
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <f>A9+1</f>
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <f>A10+1</f>
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <f>A11+1</f>
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <f>A12+1</f>
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <f>A13+1</f>
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <f>A14+1</f>
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <f>A15+1</f>
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <f>A16+1</f>
-        <v>13</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <f>A17+1</f>
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <f>A18+1</f>
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
-        <f>A19+1</f>
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <f>A20+1</f>
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <f>A21+1</f>
-        <v>18</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <f>A22+1</f>
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <f>A23+1</f>
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
-        <f>A24+1</f>
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <f>A25+1</f>
+      <c r="A26" s="5">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
-        <f>A26+1</f>
+      <c r="A27" s="5">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
-        <f>A27+1</f>
+      <c r="A28" s="5">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>20.5</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
-        <f>A28+1</f>
+      <c r="A29" s="5">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>-25</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
-        <f>A29+1</f>
+      <c r="A30" s="5">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
-        <f>A30+1</f>
+      <c r="A31" s="5">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>3</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
-        <f>A31+1</f>
+      <c r="A32" s="5">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>5</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="E32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
-        <f>A32+1</f>
+      <c r="A33" s="5">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>0</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="6" t="s">
+      <c r="E33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
-        <f>A33+1</f>
+      <c r="A34" s="5">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>2.5</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="E34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
-        <f>A34+1</f>
+      <c r="A35" s="5">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="6" t="s">
+      <c r="E35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
-        <f>A35+1</f>
+      <c r="A36" s="5">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="6" t="s">
+      <c r="E36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
-        <f>A36+1</f>
+      <c r="A37" s="5">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="6" t="s">
+      <c r="E37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
-        <f>A37+1</f>
+      <c r="A38" s="5">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="E38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
-        <f>A38+1</f>
+      <c r="A39" s="5">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="6" t="s">
+      <c r="E39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>52</v>
       </c>
     </row>
